--- a/app/controllers/admin/generateexcel/sampleForImportCourse.xlsx
+++ b/app/controllers/admin/generateexcel/sampleForImportCourse.xlsx
@@ -25,7 +25,7 @@
     <t>programId</t>
   </si>
   <si>
-    <t>acadSessionId</t>
+    <t>acadSessionName</t>
   </si>
   <si>
     <t>areaName</t>
@@ -100,7 +100,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>

--- a/app/controllers/admin/generateexcel/sampleForImportCourse.xlsx
+++ b/app/controllers/admin/generateexcel/sampleForImportCourse.xlsx
@@ -25,7 +25,7 @@
     <t>programId</t>
   </si>
   <si>
-    <t>acadSessionName</t>
+    <t>acadSession</t>
   </si>
   <si>
     <t>areaName</t>
